--- a/frontend/public/datafiles/usersfromregister.xlsx
+++ b/frontend/public/datafiles/usersfromregister.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +441,7 @@
         <v>121ec0765@gmail.com</v>
       </c>
       <c r="D3" t="str">
-        <v>User</v>
+        <v>Employee</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         <v>sai@lekha.com</v>
       </c>
       <c r="D5" t="str">
-        <v>Employee</v>
+        <v>User</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>mohan@mohan.com</v>
       </c>
       <c r="D6" t="str">
-        <v>User</v>
+        <v>Employee</v>
       </c>
     </row>
     <row r="7">
@@ -497,12 +497,26 @@
         <v>pravi@pravi.com</v>
       </c>
       <c r="D7" t="str">
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>666c10d4a0ce2e39d0226efb</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Adusumilli SATYA Sai</v>
+      </c>
+      <c r="C8" t="str">
+        <v>staya@staya.com</v>
+      </c>
+      <c r="D8" t="str">
         <v>User</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/frontend/public/datafiles/usersfromregister.xlsx
+++ b/frontend/public/datafiles/usersfromregister.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,23 +500,9 @@
         <v>Employee</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>666c10d4a0ce2e39d0226efb</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Adusumilli SATYA Sai</v>
-      </c>
-      <c r="C8" t="str">
-        <v>staya@staya.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>User</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/frontend/public/datafiles/usersfromregister.xlsx
+++ b/frontend/public/datafiles/usersfromregister.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>66633ef65bcc4a8fe8975da7</v>
+        <v>669e70ffc6f3441470c2974c</v>
       </c>
       <c r="B2" t="str">
-        <v>sai</v>
+        <v>Sai</v>
       </c>
       <c r="C2" t="str">
         <v>sai@sai.com</v>
@@ -432,77 +432,21 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6665bdcb30d87f3c08f4bae0</v>
+        <v>669e7d905704df6b80ecc047</v>
       </c>
       <c r="B3" t="str">
-        <v>sai</v>
+        <v>Sai</v>
       </c>
       <c r="C3" t="str">
         <v>121ec0765@gmail.com</v>
       </c>
       <c r="D3" t="str">
-        <v>Employee</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>6669727eac6e2588b0e41e0c</v>
-      </c>
-      <c r="B4" t="str">
-        <v>sesha</v>
-      </c>
-      <c r="C4" t="str">
-        <v>lekha@sai.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Employee</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>666972feac6e2588b0e41e0d</v>
-      </c>
-      <c r="B5" t="str">
-        <v>durgarao</v>
-      </c>
-      <c r="C5" t="str">
-        <v>sai@lekha.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>User</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>666bb5230552905c4418351c</v>
-      </c>
-      <c r="B6" t="str">
-        <v>mohan</v>
-      </c>
-      <c r="C6" t="str">
-        <v>mohan@mohan.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Employee</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>666bb57c0552905c4418351d</v>
-      </c>
-      <c r="B7" t="str">
-        <v>pravi</v>
-      </c>
-      <c r="C7" t="str">
-        <v>pravi@pravi.com</v>
-      </c>
-      <c r="D7" t="str">
         <v>Employee</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>